--- a/stage_1/Date_Text_Functions/Date_text_functions.xlsx
+++ b/stage_1/Date_Text_Functions/Date_text_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Date_Text_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90F3B5-A439-418C-A7D0-E77B9198D1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09F422D-C7E9-4E77-959B-6E16DF112775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>EMP001</t>
   </si>
   <si>
-    <t>15/06/1990</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>EMP002</t>
   </si>
   <si>
-    <t>22/11/1985</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>EMP003</t>
   </si>
   <si>
-    <t>20/07/2019</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -124,12 +115,6 @@
     <t>EMP005</t>
   </si>
   <si>
-    <t>29/09/1988</t>
-  </si>
-  <si>
-    <t>15/04/2014</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
@@ -139,13 +124,13 @@
     <t>Current date &amp; time</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>Day of Birth</t>
+  </si>
+  <si>
+    <t>Month of Birth</t>
+  </si>
+  <si>
+    <t>Year of Birth</t>
   </si>
 </sst>
 </file>
@@ -478,7 +463,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,6 +474,8 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.36328125" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -508,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -524,103 +511,143 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>33039</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42014</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>42278</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="e" cm="1">
+      <c r="F2" cm="1">
         <f t="array" ref="F2:F6" xml:space="preserve"> DAY(C2:C6)</f>
-        <v>#VALUE!</v>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f xml:space="preserve"> MONTH(C2)</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> YEAR(C2)</f>
+        <v>1990</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1">
+        <v>31373</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40973</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0" xml:space="preserve"> MONTH(C3)</f>
         <v>11</v>
       </c>
-      <c r="D3" s="1">
-        <v>41032</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#VALUE!</v>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="1" xml:space="preserve"> YEAR(C3)</f>
+        <v>1985</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34733</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43666</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>34760</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1995</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>33946</v>
+        <v>33828</v>
       </c>
       <c r="D5" s="1">
-        <v>42741</v>
+        <v>42887</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1992</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32415</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41744</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#VALUE!</v>
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1988</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <f ca="1" xml:space="preserve"> TODAY()</f>
@@ -629,11 +656,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>45917.506527314814</v>
+        <v>45917.516142824075</v>
       </c>
     </row>
   </sheetData>

--- a/stage_1/Date_Text_Functions/Date_text_functions.xlsx
+++ b/stage_1/Date_Text_Functions/Date_text_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Date_Text_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09F422D-C7E9-4E77-959B-6E16DF112775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91A566-5561-4E8A-824B-BAF545B41A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -124,13 +124,19 @@
     <t>Current date &amp; time</t>
   </si>
   <si>
-    <t>Day of Birth</t>
-  </si>
-  <si>
-    <t>Month of Birth</t>
-  </si>
-  <si>
-    <t>Year of Birth</t>
+    <t>Employee Age</t>
+  </si>
+  <si>
+    <t>Birth Day</t>
+  </si>
+  <si>
+    <t>Birth Month</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
+  </si>
+  <si>
+    <t>Years of Joining</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,9 +482,11 @@
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
     <col min="7" max="7" width="15.08984375" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,16 +503,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -532,8 +546,16 @@
         <f xml:space="preserve"> YEAR(C2)</f>
         <v>1990</v>
       </c>
+      <c r="I2">
+        <f ca="1">DATEDIF(C2,TODAY(),"y")</f>
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <f ca="1" xml:space="preserve"> DATEDIF(D2, TODAY(), "y")</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -560,8 +582,16 @@
         <f t="shared" ref="H3:H6" si="1" xml:space="preserve"> YEAR(C3)</f>
         <v>1985</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" ca="1" si="2">DATEDIF(C3,TODAY(),"y")</f>
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" ca="1" si="3" xml:space="preserve"> DATEDIF(D3, TODAY(), "y")</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -588,8 +618,16 @@
         <f t="shared" si="1"/>
         <v>1995</v>
       </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -616,8 +654,16 @@
         <f t="shared" si="1"/>
         <v>1992</v>
       </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -644,8 +690,16 @@
         <f t="shared" si="1"/>
         <v>1988</v>
       </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -654,13 +708,13 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>45917.516142824075</v>
+        <v>45917.534627546294</v>
       </c>
     </row>
   </sheetData>

--- a/stage_1/Date_Text_Functions/Date_text_functions.xlsx
+++ b/stage_1/Date_Text_Functions/Date_text_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Date_Text_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91A566-5561-4E8A-824B-BAF545B41A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B2A0CC-6CD1-4D3C-AAB7-221C9A140A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>Years of Joining</t>
+  </si>
+  <si>
+    <t>Name - Department</t>
+  </si>
+  <si>
+    <t>Upper Name</t>
+  </si>
+  <si>
+    <t>Lower Name</t>
+  </si>
+  <si>
+    <t>Proper Name</t>
   </si>
 </sst>
 </file>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,9 +496,10 @@
     <col min="8" max="8" width="13.36328125" customWidth="1"/>
     <col min="9" max="9" width="14.90625" customWidth="1"/>
     <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,8 +530,11 @@
       <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -554,8 +570,12 @@
         <f ca="1" xml:space="preserve"> DATEDIF(D2, TODAY(), "y")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(A2, " - ", E2)</f>
+        <v>Samuel Ade - Sales</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -590,8 +610,12 @@
         <f t="shared" ref="J3:J6" ca="1" si="3" xml:space="preserve"> DATEDIF(D3, TODAY(), "y")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K6" si="4" xml:space="preserve"> _xlfn.CONCAT(A3, " - ", E3)</f>
+        <v>Sarah John - HR</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -626,8 +650,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>Daniel Obi - IT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -662,8 +690,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>Sandra Paul - Finance</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -698,8 +730,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>Steven Lee - Marketing</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -707,17 +743,113 @@
         <f ca="1" xml:space="preserve"> TODAY()</f>
         <v>45917</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>45917.534627546294</v>
+        <v>45917.544785300925</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="str">
+        <f xml:space="preserve"> UPPER(D10)</f>
+        <v>SAMUEL ADE</v>
+      </c>
+      <c r="F10" t="str">
+        <f xml:space="preserve"> LOWER(D10)</f>
+        <v>samuel ade</v>
+      </c>
+      <c r="G10" t="str">
+        <f xml:space="preserve"> PROPER(F10)</f>
+        <v>Samuel Ade</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ref="E11:E14" si="5" xml:space="preserve"> UPPER(D11)</f>
+        <v>SARAH JOHN</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ref="F11:F14" si="6" xml:space="preserve"> LOWER(D11)</f>
+        <v>sarah john</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G14" si="7" xml:space="preserve"> PROPER(F11)</f>
+        <v>Sarah John</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="5"/>
+        <v>DANIEL OBI</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="6"/>
+        <v>daniel obi</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="7"/>
+        <v>Daniel Obi</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="5"/>
+        <v>SANDRA PAUL</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="6"/>
+        <v>sandra paul</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="7"/>
+        <v>Sandra Paul</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="5"/>
+        <v>STEVEN LEE</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="6"/>
+        <v>steven lee</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="7"/>
+        <v>Steven Lee</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_1/Date_Text_Functions/Date_text_functions.xlsx
+++ b/stage_1/Date_Text_Functions/Date_text_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Date_Text_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B2A0CC-6CD1-4D3C-AAB7-221C9A140A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563435E-3B06-44A3-AEA6-B764105D329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>Proper Name</t>
+  </si>
+  <si>
+    <t>First 3 letters</t>
+  </si>
+  <si>
+    <t>Last 3 digit</t>
+  </si>
+  <si>
+    <t>2-5 letters first name</t>
+  </si>
+  <si>
+    <t>Remove Trailing</t>
+  </si>
+  <si>
+    <t>Number of Characters</t>
+  </si>
+  <si>
+    <t>Space Position</t>
+  </si>
+  <si>
+    <t>"a" position</t>
+  </si>
+  <si>
+    <t>Days of working</t>
   </si>
 </sst>
 </file>
@@ -192,12 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,28 +503,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.36328125" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
     <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,8 +559,11 @@
       <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -574,8 +603,13 @@
         <f xml:space="preserve"> _xlfn.CONCAT(A2, " - ", E2)</f>
         <v>Samuel Ade - Sales</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <f ca="1">DATEDIF(D2,TODAY(),"d")</f>
+        <v>3903</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -614,8 +648,12 @@
         <f t="shared" ref="K3:K6" si="4" xml:space="preserve"> _xlfn.CONCAT(A3, " - ", E3)</f>
         <v>Sarah John - HR</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <f t="shared" ref="L3:L6" ca="1" si="5">DATEDIF(D3,TODAY(),"d")</f>
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -654,8 +692,12 @@
         <f t="shared" si="4"/>
         <v>Daniel Obi - IT</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f t="shared" ca="1" si="5"/>
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -694,8 +736,12 @@
         <f t="shared" si="4"/>
         <v>Sandra Paul - Finance</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f t="shared" ca="1" si="5"/>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -734,8 +780,12 @@
         <f t="shared" si="4"/>
         <v>Steven Lee - Marketing</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f t="shared" ca="1" si="5"/>
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -755,14 +805,32 @@
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>45917.544785300925</v>
+        <v>45917.567125462963</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -779,73 +847,242 @@
         <f xml:space="preserve"> PROPER(F10)</f>
         <v>Samuel Ade</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H10" t="str">
+        <f xml:space="preserve"> LEFT(D10, 3)</f>
+        <v>Sam</v>
+      </c>
+      <c r="I10" t="str">
+        <f xml:space="preserve"> MID(D10, 2, 5)</f>
+        <v>amuel</v>
+      </c>
+      <c r="J10" t="str">
+        <f xml:space="preserve"> TRIM(D10)</f>
+        <v>Samuel Ade</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> LEN(D10)</f>
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f xml:space="preserve"> FIND(" ", D10)</f>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f xml:space="preserve"> SEARCH("a", D10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ref="E11:E14" si="5" xml:space="preserve"> UPPER(D11)</f>
+        <f t="shared" ref="E11:E14" si="6" xml:space="preserve"> UPPER(D11)</f>
         <v>SARAH JOHN</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11:F14" si="6" xml:space="preserve"> LOWER(D11)</f>
+        <f t="shared" ref="F11:F14" si="7" xml:space="preserve"> LOWER(D11)</f>
         <v>sarah john</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G14" si="7" xml:space="preserve"> PROPER(F11)</f>
+        <f t="shared" ref="G11:G14" si="8" xml:space="preserve"> PROPER(F11)</f>
         <v>Sarah John</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H11" t="str">
+        <f t="shared" ref="H11:H14" si="9" xml:space="preserve"> LEFT(D11, 3)</f>
+        <v>Sar</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ref="I11:I14" si="10" xml:space="preserve"> MID(D11, 2, 5)</f>
+        <v xml:space="preserve">arah </v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ref="J11:J14" si="11" xml:space="preserve"> TRIM(D11)</f>
+        <v>Sarah John</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K14" si="12" xml:space="preserve"> LEN(D11)</f>
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L14" si="13" xml:space="preserve"> FIND(" ", D11)</f>
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M14" si="14" xml:space="preserve"> SEARCH("a", D11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>DANIEL OBI</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>daniel obi</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Daniel Obi</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H12" t="str">
+        <f t="shared" si="9"/>
+        <v>Dan</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="10"/>
+        <v>aniel</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="11"/>
+        <v>Daniel Obi</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SANDRA PAUL</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>sandra paul</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Sandra Paul</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H13" t="str">
+        <f t="shared" si="9"/>
+        <v>San</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="10"/>
+        <v>andra</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="11"/>
+        <v>Sandra Paul</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>STEVEN LEE</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>steven lee</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Steven Lee</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="9"/>
+        <v>Ste</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="10"/>
+        <v>teven</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="11"/>
+        <v>Steven Lee</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="str">
+        <f xml:space="preserve"> RIGHT(D17, 3)</f>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ref="E18:E21" si="15" xml:space="preserve"> RIGHT(D18, 3)</f>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="15"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="15"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="15"/>
+        <v>005</v>
       </c>
     </row>
   </sheetData>

--- a/stage_1/Date_Text_Functions/Date_text_functions.xlsx
+++ b/stage_1/Date_Text_Functions/Date_text_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Date_Text_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563435E-3B06-44A3-AEA6-B764105D329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628AA203-C684-4960-AFA0-45D350E21AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="B10" s="3">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>45917.567125462963</v>
+        <v>45917.572223379633</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>

--- a/stage_1/Date_Text_Functions/Date_text_functions.xlsx
+++ b/stage_1/Date_Text_Functions/Date_text_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Date_Text_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628AA203-C684-4960-AFA0-45D350E21AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D6642-198C-413F-8E43-7D41CF832322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
